--- a/Documentation/M5_Access_Switch_Input_BOM.xlsx
+++ b/Documentation/M5_Access_Switch_Input_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\M5-Access-Switch\M5-Access-Switch-Input\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958BC00F-6FC0-445A-B3DC-271FB23DEA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38A31F6-79B4-40BD-BCE0-7543511EE1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1300" windowWidth="14400" windowHeight="8130" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M5-Access-Switch-Input BOM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>CFM14JA470R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/en/products/detail/essentra-components/50M025045P006/11638590 </t>
+  </si>
+  <si>
+    <t>145-50M025045P006-ND</t>
+  </si>
+  <si>
+    <t>50M025045P006</t>
+  </si>
+  <si>
+    <t>PAN PHILLIPS SCREW, M2.5 X 4.5 T</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/9600/2746248</t>
+  </si>
+  <si>
+    <t>36-9600-ND</t>
+  </si>
+  <si>
+    <t>HEX NUT 1/4" STEEL 4-40</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -206,27 +230,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -642,7 +661,7 @@
         <v>1.48</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H7" si="0">B3*G3</f>
+        <f t="shared" ref="H3:H9" si="0">B3*G3</f>
         <v>2.96</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -652,25 +671,25 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" ht="14.5" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="3">
         <v>0.57999999999999996</v>
       </c>
       <c r="H4" s="2">
@@ -684,25 +703,25 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="11">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <v>0.7</v>
       </c>
       <c r="H5" s="2">
@@ -780,46 +799,79 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>9600</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.16</v>
       </c>
       <c r="H9">
-        <f>SUM(H2:H7)</f>
-        <v>36.899999999999991</v>
-      </c>
-      <c r="I9"/>
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10"/>
-      <c r="B10"/>
+      <c r="B10" s="3"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10"/>
+      <c r="G10" s="3"/>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10" s="8"/>
       <c r="J10"/>
       <c r="K10"/>
     </row>
@@ -830,17 +882,48 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H9)</f>
+        <v>37.679999999999993</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -850,8 +933,10 @@
     <hyperlink ref="I3" r:id="rId4" xr:uid="{B2CCB8BB-2472-4812-A0D7-C6C6FBAB8C45}"/>
     <hyperlink ref="I6" r:id="rId5" xr:uid="{29897688-494C-4E39-9EED-9C3375BE4FF0}"/>
     <hyperlink ref="I7" r:id="rId6" xr:uid="{F3A038A5-877E-4E6F-82A8-D51B24448BC9}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{46400990-ECAB-44BC-B493-05C17D7E2B1D}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{13C41D4A-7FD0-4DD6-86A8-FC9070E85572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>